--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\modul152-Gallery-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE9246-AD71-4E85-8AA5-2D6EE06C417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED00FB-0F68-482C-8DE8-23D9CFF6AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Planen</t>
   </si>
@@ -113,13 +113,88 @@
   </si>
   <si>
     <t>1 </t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hexadezimal</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>Solitude</t>
+  </si>
+  <si>
+    <t>#E5E7EB</t>
+  </si>
+  <si>
+    <t>229 231 235</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #ffffff</t>
+  </si>
+  <si>
+    <t>255 255 255</t>
+  </si>
+  <si>
+    <t>Slate Gray</t>
+  </si>
+  <si>
+    <t>#4B5563</t>
+  </si>
+  <si>
+    <t>75 85 99</t>
+  </si>
+  <si>
+    <t>Gainsboro</t>
+  </si>
+  <si>
+    <t>#D1D5DB</t>
+  </si>
+  <si>
+    <t>209 213 219</t>
+  </si>
+  <si>
+    <t>Cinnabar</t>
+  </si>
+  <si>
+    <t>#EF4444</t>
+  </si>
+  <si>
+    <t>239 68 68</t>
+  </si>
+  <si>
+    <t>Cornflower Blue</t>
+  </si>
+  <si>
+    <t>#3B82F6</t>
+  </si>
+  <si>
+    <t>59 130 246</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +274,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2F5496"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +336,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E7EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B5563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1D5DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF4444"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B82F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -441,11 +570,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -462,126 +643,156 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" topLeftCell="X72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO83" sqref="AO83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,325 +1128,327 @@
     <col min="23" max="23" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="29" max="36" width="4" customWidth="1"/>
+    <col min="39" max="39" width="18.81640625" customWidth="1"/>
+    <col min="40" max="40" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="18">
+      <c r="A1" s="13"/>
+      <c r="B1" s="43">
         <v>44963</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43">
         <v>44964</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43">
         <v>44965</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43">
         <v>44966</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43">
         <v>44967</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="35">
+      <c r="K1" s="43"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="34">
         <v>44963</v>
       </c>
-      <c r="Y1" s="35">
+      <c r="Y1" s="34">
         <v>44964</v>
       </c>
-      <c r="Z1" s="35">
+      <c r="Z1" s="34">
         <v>44965</v>
       </c>
-      <c r="AA1" s="35">
+      <c r="AA1" s="34">
         <v>44966</v>
       </c>
-      <c r="AB1" s="35">
+      <c r="AB1" s="34">
         <v>44967</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="22">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="W3" s="31" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="W3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="32">
+      <c r="X3" s="21">
         <v>0.5</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="21">
         <v>0.5</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
         <v>2</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="W4" s="20" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="W4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28">
         <v>2</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="28">
         <v>1</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="28">
         <v>1</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="23">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="12">
         <v>3</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="W5" s="21" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="W5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
     </row>
     <row r="6" spans="1:28" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
         <v>1</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="W6" s="27" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="W6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30">
         <v>1</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="1:28" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="W7" s="28" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="W7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
     </row>
     <row r="8" spans="1:28" ht="84" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="W8" s="20" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="W8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="37">
+      <c r="X8" s="36"/>
+      <c r="Y8" s="28">
         <v>2</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="28">
         <v>2</v>
       </c>
-      <c r="AA8" s="37" t="s">
+      <c r="AA8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="37"/>
+      <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W10" s="29" t="s">
+      <c r="W10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="33">
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="22">
         <v>3</v>
       </c>
-      <c r="AB10" s="33">
+      <c r="AB10" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="28" x14ac:dyDescent="0.35">
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37">
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28">
         <v>2</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="28">
         <v>2</v>
       </c>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W12" s="21" t="s">
+      <c r="W12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L13" s="6"/>
-      <c r="W13" s="27" t="s">
+      <c r="W13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="39" t="s">
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="39" t="s">
+      <c r="AB13" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L14" s="6"/>
-      <c r="W14" s="28" t="s">
+      <c r="W14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="L15" s="6"/>
@@ -1257,336 +1470,448 @@
     </row>
     <row r="21" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W21" s="1"/>
-      <c r="X21" s="8">
+      <c r="X21" s="44">
         <v>44963</v>
       </c>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8">
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44">
         <v>44964</v>
       </c>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8">
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44">
         <v>44965</v>
       </c>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8">
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44">
         <v>44966</v>
       </c>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8">
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44">
         <v>44967</v>
       </c>
-      <c r="AG21" s="8"/>
+      <c r="AG21" s="44"/>
     </row>
     <row r="22" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W22" s="1"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
     </row>
     <row r="23" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="39">
         <v>0.5</v>
       </c>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="16">
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="39">
         <v>0.5</v>
       </c>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="17"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="40"/>
     </row>
     <row r="24" spans="12:33" ht="174" x14ac:dyDescent="0.35">
       <c r="W24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="16">
+      <c r="X24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="39">
         <v>1</v>
       </c>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="16">
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="39">
         <v>1</v>
       </c>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="16">
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="39">
         <v>1</v>
       </c>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="16">
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="39">
         <v>1</v>
       </c>
-      <c r="AG24" s="17"/>
+      <c r="AG24" s="40"/>
     </row>
     <row r="25" spans="12:33" ht="101.5" x14ac:dyDescent="0.35">
       <c r="W25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="14">
+      <c r="X25" s="26"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="26">
         <v>1</v>
       </c>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="15"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="38"/>
     </row>
     <row r="26" spans="12:33" ht="130.5" x14ac:dyDescent="0.35">
       <c r="W26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26" s="39">
         <v>2</v>
       </c>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="16">
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="39">
         <v>2</v>
       </c>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="16">
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="39">
         <v>2</v>
       </c>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="17"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="40"/>
     </row>
     <row r="27" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="14">
+      <c r="X27" s="26"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="26">
         <v>3</v>
       </c>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="15"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="38"/>
     </row>
     <row r="28" spans="12:33" ht="87" x14ac:dyDescent="0.35">
       <c r="W28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="16">
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="39">
         <v>2</v>
       </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="16">
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="39">
         <v>2</v>
       </c>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="17"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="40"/>
     </row>
     <row r="29" spans="12:33" ht="116" x14ac:dyDescent="0.35">
       <c r="W29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="14">
+      <c r="X29" s="26"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="26">
         <v>1</v>
       </c>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="14">
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="26">
         <v>1</v>
       </c>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="15"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="38"/>
     </row>
     <row r="30" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W30" s="2"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="11"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="42"/>
     </row>
     <row r="31" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W31" s="3"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="11"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="42"/>
     </row>
     <row r="32" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W32" s="2"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="13"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="47"/>
     </row>
     <row r="33" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W33" s="3"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="11"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="42"/>
     </row>
     <row r="34" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W34" s="2"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="13"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="47"/>
     </row>
     <row r="35" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W35" s="3"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="11"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="42"/>
     </row>
     <row r="36" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W36" s="2"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="13"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="47"/>
     </row>
     <row r="37" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W37" s="3"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="11"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="42"/>
     </row>
     <row r="38" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W38" s="2"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="13"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="47"/>
+    </row>
+    <row r="76" spans="37:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="37:40" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK77" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL77" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM77" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN77" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK78" s="55"/>
+      <c r="AL78" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM78" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN78" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM79" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN79" s="54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK80" s="57"/>
+      <c r="AL80" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM80" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN80" s="54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK81" s="59"/>
+      <c r="AL81" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM81" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN81" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK82" s="58"/>
+      <c r="AL82" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM82" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN82" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM83" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN83" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK84" s="60"/>
+      <c r="AL84" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM84" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN84" s="54" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AF21:AG22"/>
+    <mergeCell ref="AD21:AE22"/>
+    <mergeCell ref="AB21:AC22"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="X37:Y37"/>
     <mergeCell ref="X38:Y38"/>
     <mergeCell ref="AF23:AG23"/>
@@ -1611,62 +1936,49 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AF21:AG22"/>
-    <mergeCell ref="AD21:AE22"/>
-    <mergeCell ref="AB21:AC22"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X21:Y22"/>
     <mergeCell ref="B7:K7"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\modul152-Gallery-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED00FB-0F68-482C-8DE8-23D9CFF6AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCBCA6-B7D0-4A11-A54F-D692109229C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Planen</t>
   </si>
@@ -188,13 +188,25 @@
   </si>
   <si>
     <t>0 0 0</t>
+  </si>
+  <si>
+    <t>Style Guide</t>
+  </si>
+  <si>
+    <t>Website Erstellen</t>
+  </si>
+  <si>
+    <t>Documentation schreiben</t>
+  </si>
+  <si>
+    <t>Heute habe ich Zeit damit verbracht, die Website zu testen und alle gefundenen Fehler zu beheben. Ich habe auch Freunde und Verwandte gebeten, die Website zu testen und mir Feedback zu ihrer Benutzerfreundlichkeit und ihrem Design zu geben. Auf der Grundlage ihrer Rückmeldungen nahm ich einige Anpassungen vor und testete weiter, bis ich mit der Leistung der Website zufrieden war. Ich nahm die letzten Anpassungen an Design und Inhalt vor und lud die Website auf einen Webserver hoch. Ich sorgte auch dafür, dass die Dokumentation für Benutzer und Entwickler zugänglich war.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +298,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +396,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -622,11 +646,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,16 +781,68 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,72 +863,74 @@
     <xf numFmtId="16" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,14 +1248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
   <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AO83" sqref="AO83"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="15" width="5.453125" customWidth="1"/>
+    <col min="2" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="15" width="5.453125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -1134,40 +1274,40 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="43">
+      <c r="B1" s="46">
         <v>44963</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46">
         <v>44964</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46">
         <v>44965</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46">
         <v>44966</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46">
         <v>44967</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="46"/>
       <c r="W1" s="19"/>
-      <c r="X1" s="34">
+      <c r="X1" s="54">
         <v>44963</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="54">
         <v>44964</v>
       </c>
-      <c r="Z1" s="34">
+      <c r="Z1" s="54">
         <v>44965</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AA1" s="54">
         <v>44966</v>
       </c>
-      <c r="AB1" s="34">
+      <c r="AB1" s="54">
         <v>44967</v>
       </c>
     </row>
@@ -1204,11 +1344,11 @@
         <v>3</v>
       </c>
       <c r="W2" s="19"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -1258,17 +1398,17 @@
       <c r="W4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="28">
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="56">
         <v>1</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="56">
         <v>1</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="56">
         <v>2</v>
       </c>
     </row>
@@ -1291,11 +1431,11 @@
       <c r="W5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
     </row>
     <row r="6" spans="1:28" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -1316,75 +1456,75 @@
       <c r="W6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50">
         <v>1</v>
       </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
     </row>
     <row r="7" spans="1:28" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
       <c r="W7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
     </row>
     <row r="8" spans="1:28" ht="84" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
       <c r="W8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="28">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="28" t="s">
+      <c r="X8" s="58"/>
+      <c r="Y8" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="56">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="28"/>
+      <c r="AB8" s="56"/>
     </row>
     <row r="9" spans="1:28" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W10" s="18" t="s">
@@ -1404,38 +1544,38 @@
       <c r="W11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="28">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="1:28" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="W12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L13" s="6"/>
       <c r="W13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="30" t="s">
+      <c r="X13" s="50"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="30" t="s">
+      <c r="AB13" s="50" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1444,11 +1584,11 @@
       <c r="W14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="L15" s="6"/>
@@ -1470,393 +1610,780 @@
     </row>
     <row r="21" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W21" s="1"/>
-      <c r="X21" s="44">
+      <c r="X21" s="36">
         <v>44963</v>
       </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44">
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36">
         <v>44964</v>
       </c>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44">
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36">
         <v>44965</v>
       </c>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44">
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36">
         <v>44966</v>
       </c>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44">
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36">
         <v>44967</v>
       </c>
-      <c r="AG21" s="44"/>
+      <c r="AG21" s="36"/>
     </row>
     <row r="22" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W22" s="1"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
     </row>
     <row r="23" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X23" s="39">
+      <c r="X23" s="44">
         <v>0.5</v>
       </c>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="39">
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="44">
         <v>0.5</v>
       </c>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="40"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="45"/>
     </row>
     <row r="24" spans="12:33" ht="174" x14ac:dyDescent="0.35">
       <c r="W24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="39">
+      <c r="X24" s="44"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="44">
         <v>1</v>
       </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="39">
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="44">
         <v>1</v>
       </c>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="39">
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="44">
         <v>1</v>
       </c>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="39">
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="44">
         <v>1</v>
       </c>
-      <c r="AG24" s="40"/>
+      <c r="AG24" s="45"/>
     </row>
     <row r="25" spans="12:33" ht="101.5" x14ac:dyDescent="0.35">
       <c r="W25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="26">
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="42">
         <v>1</v>
       </c>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="38"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="43"/>
     </row>
     <row r="26" spans="12:33" ht="130.5" x14ac:dyDescent="0.35">
       <c r="W26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X26" s="39">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="39">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="39">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="40"/>
+      <c r="X26" s="44">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="44">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="44">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="45"/>
     </row>
     <row r="27" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="26">
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="42">
         <v>3</v>
       </c>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="38"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="43"/>
     </row>
     <row r="28" spans="12:33" ht="87" x14ac:dyDescent="0.35">
       <c r="W28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="39">
-        <v>2</v>
-      </c>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="39">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="40"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="44">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="44">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="45"/>
     </row>
     <row r="29" spans="12:33" ht="116" x14ac:dyDescent="0.35">
       <c r="W29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="26">
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="42">
         <v>1</v>
       </c>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="26">
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="42">
         <v>1</v>
       </c>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="38"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="43"/>
     </row>
     <row r="30" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W30" s="2"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="42"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="39"/>
     </row>
     <row r="31" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W31" s="3"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="42"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="39"/>
     </row>
     <row r="32" spans="12:33" x14ac:dyDescent="0.35">
       <c r="W32" s="2"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="47"/>
-    </row>
-    <row r="33" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X32" s="40"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="41"/>
+    </row>
+    <row r="33" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W33" s="3"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="42"/>
-    </row>
-    <row r="34" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X33" s="38"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="39"/>
+    </row>
+    <row r="34" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W34" s="2"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="47"/>
-    </row>
-    <row r="35" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X34" s="40"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="41"/>
+    </row>
+    <row r="35" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W35" s="3"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="42"/>
-    </row>
-    <row r="36" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X35" s="38"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="39"/>
+    </row>
+    <row r="36" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W36" s="2"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="47"/>
-    </row>
-    <row r="37" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X36" s="40"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="41"/>
+    </row>
+    <row r="37" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W37" s="3"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="42"/>
-    </row>
-    <row r="38" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="X37" s="38"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="39"/>
+    </row>
+    <row r="38" spans="10:33" x14ac:dyDescent="0.35">
       <c r="W38" s="2"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="47"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="41"/>
+    </row>
+    <row r="45" spans="10:33" x14ac:dyDescent="0.35">
+      <c r="J45" s="19"/>
+      <c r="K45" s="54">
+        <v>44989</v>
+      </c>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54">
+        <v>44990</v>
+      </c>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54">
+        <v>44996</v>
+      </c>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54">
+        <v>44999</v>
+      </c>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54">
+        <v>45000</v>
+      </c>
+      <c r="T45" s="54"/>
+    </row>
+    <row r="46" spans="10:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J46" s="19"/>
+      <c r="K46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="10:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J47" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="65">
+        <v>1</v>
+      </c>
+      <c r="T47" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="10:33" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65">
+        <v>2</v>
+      </c>
+      <c r="T48" s="65">
+        <v>2</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="65">
+        <v>2</v>
+      </c>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+    </row>
+    <row r="49" spans="10:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="62"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="65">
+        <v>3</v>
+      </c>
+      <c r="T49" s="65">
+        <v>3</v>
+      </c>
+      <c r="U49" s="63"/>
+    </row>
+    <row r="50" spans="10:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="65">
+        <v>2</v>
+      </c>
+      <c r="T50" s="65">
+        <v>2</v>
+      </c>
+      <c r="U50" s="63"/>
+    </row>
+    <row r="51" spans="10:21" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J52" s="68"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="75"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J53" s="68"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J54" s="68"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J55" s="68"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J56" s="68"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J57" s="68"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="10:21" x14ac:dyDescent="0.35">
+      <c r="J58" s="68"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="6"/>
+    </row>
+    <row r="59" spans="10:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J59" s="69"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="6"/>
     </row>
     <row r="76" spans="37:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="77" spans="37:40" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK77" s="51" t="s">
+      <c r="AK77" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AL77" s="52" t="s">
+      <c r="AL77" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AM77" s="52" t="s">
+      <c r="AM77" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AN77" s="52" t="s">
+      <c r="AN77" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="78" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK78" s="55"/>
-      <c r="AL78" s="54" t="s">
+      <c r="AK78" s="30"/>
+      <c r="AL78" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AM78" s="54" t="s">
+      <c r="AM78" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AN78" s="54" t="s">
+      <c r="AN78" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="54" t="s">
+      <c r="AK79" s="28"/>
+      <c r="AL79" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AM79" s="54" t="s">
+      <c r="AM79" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AN79" s="54" t="s">
+      <c r="AN79" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK80" s="57"/>
-      <c r="AL80" s="54" t="s">
+      <c r="AK80" s="32"/>
+      <c r="AL80" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM80" s="54" t="s">
+      <c r="AM80" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AN80" s="54" t="s">
+      <c r="AN80" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="81" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK81" s="59"/>
-      <c r="AL81" s="54" t="s">
+      <c r="AK81" s="34"/>
+      <c r="AL81" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM81" s="54" t="s">
+      <c r="AM81" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AN81" s="54" t="s">
+      <c r="AN81" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="82" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK82" s="58"/>
-      <c r="AL82" s="54" t="s">
+      <c r="AK82" s="33"/>
+      <c r="AL82" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AM82" s="54" t="s">
+      <c r="AM82" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AN82" s="54" t="s">
+      <c r="AN82" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="83" spans="37:40" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="54" t="s">
+      <c r="AK83" s="31"/>
+      <c r="AL83" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AM83" s="54" t="s">
+      <c r="AM83" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AN83" s="54" t="s">
+      <c r="AN83" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="37:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK84" s="60"/>
-      <c r="AL84" s="54" t="s">
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AM84" s="54" t="s">
+      <c r="AM84" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AN84" s="54" t="s">
+      <c r="AN84" s="29" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="130">
+    <mergeCell ref="J51:J59"/>
+    <mergeCell ref="K51:T59"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="Z38:AA38"/>
@@ -1881,104 +2408,6 @@
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="X21:Y22"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
